--- a/love_babbar_FINAL450.xlsx
+++ b/love_babbar_FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragha\OneDrive\Desktop\dsa-sheet-love-babbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CFFC8-D389-4B52-9E79-E5F142F885A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C091F82-E23C-47DB-ACD4-23477FDD9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1887,9 +1887,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -1921,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1932,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1943,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1954,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/love_babbar_FINAL450.xlsx
+++ b/love_babbar_FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragha\OneDrive\Desktop\dsa-sheet-love-babbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C091F82-E23C-47DB-ACD4-23477FDD9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381AE70B-EF4F-4438-91FA-13A9B4848296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -7373,5 +7373,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>